--- a/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/BEST/1_15_30_0.0009_8_manual_online 9.xlsx
+++ b/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/BEST/1_15_30_0.0009_8_manual_online 9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Optimised_Networks\Predictions\1HL Manual\BEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34734E91-DB05-43F6-82B3-A5ED151E577E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4534DDF7-6FBA-4DC3-998E-C8E1AEC43419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7328,16 +7328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398972</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19448</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>379922</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7917,7 +7917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="AE42" sqref="AE42"/>
     </sheetView>
   </sheetViews>
